--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792486.1592779036</v>
+        <v>872688.8824299377</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>316.7530895860693</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>213.6895597919025</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838597</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>122.6942204073862</v>
+        <v>24.6841235910636</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5908076132617</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>62.78140332922651</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>1.781160222249448</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>188.7221730505803</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>174.9754168716974</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>182.9377227717316</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>8.883841599732479</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>168.1158122680967</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145761</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.23490948285976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>42.29200062050054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>120.3577665219461</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>201.6622187863186</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>19.68942351146667</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2017,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771021</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>129.1643093334204</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>158.5596236696478</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>126.0955237083909</v>
       </c>
       <c r="E22" t="n">
-        <v>119.05257541788</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>271.8036819298772</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>19.40255011232311</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>72.92985927127408</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>98.84105469403771</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>148.6151831671111</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>105.0023863360938</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,49 +2727,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>71.67037196991727</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>138.9527516093538</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>289.1825630108439</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>154.531863314844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>61.60385878691261</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>47.43217639605667</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>15.07437110675918</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>58.78354118166495</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>15.63807347850683</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2901074925137028</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>105.0023863360942</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.9654659124572</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>740.1619192519192</v>
+        <v>1216.983460896267</v>
       </c>
       <c r="C2" t="n">
-        <v>371.1994023115075</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800312</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800312</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>1603.583300960388</v>
       </c>
     </row>
     <row r="3">
@@ -4404,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>420.2093035084148</v>
+        <v>1139.973197786556</v>
       </c>
       <c r="C5" t="n">
-        <v>51.2467865680031</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D5" t="n">
-        <v>51.2467865680031</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E5" t="n">
-        <v>51.2467865680031</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F5" t="n">
-        <v>51.2467865680031</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2290.178128087569</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2290.178128087569</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>2290.178128087569</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>1916.712369826489</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460529</v>
+        <v>1526.573037850677</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4650,19 +4652,19 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.04593830764901</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C7" t="n">
-        <v>53.04593830764901</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D7" t="n">
-        <v>53.04593830764901</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04593830764901</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>53.04593830764901</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>53.04593830764901</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>53.04593830764901</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4752,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>570.452659242627</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056664</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764901</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764901</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1798.734238163263</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>1798.734238163263</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1440.468539556513</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1054.680286958269</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>643.6943821686611</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>227.98963189295</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4805,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872913</v>
@@ -4835,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>2377.55374984285</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="C10" t="n">
         <v>918.7469765594642</v>
@@ -4987,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>927.7205539329314</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6936570343842</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C13" t="n">
-        <v>608.7574741064773</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941415</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117484</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.527932658018</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.124251906171</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1180.134701008154</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>959.3421218646239</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5279,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5312,16 +5314,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2303.170539913434</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.170539913434</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.170539913434</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.35562273557</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>238.9780145194019</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W20" t="n">
-        <v>2470.560553036583</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X20" t="n">
-        <v>2097.094794775503</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y20" t="n">
-        <v>1706.955462799692</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.4128495803448</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4766666524379</v>
+        <v>1592.192605819923</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3600272401021</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.843444452132</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.853893554115</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>1002.061314410584</v>
+        <v>1761.12878874783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1921.870414581993</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C23" t="n">
-        <v>1552.907897641581</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>383.6942522904092</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>3072.075344883006</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>3072.075344883006</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>2698.609586621927</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>2308.470254646115</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>899.0183448486844</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6172,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1827.455098902596</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1605.688483472122</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1316.585616597766</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1061.901128391879</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746702</v>
+        <v>772.4839583549184</v>
       </c>
       <c r="X25" t="n">
-        <v>899.0183448486844</v>
+        <v>544.4944074569011</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0183448486844</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1698.509627919559</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.547110979147</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>971.2814123723965</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>971.2814123723965</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2151.073568494535</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>1982.137385566628</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>1832.020746154293</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>1684.1076525719</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1537.217705073989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403283</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366323</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>2553.514612468305</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>2332.722033324775</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1758.295537883726</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C29" t="n">
-        <v>1758.295537883726</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.034709923659</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X29" t="n">
-        <v>2535.034709923659</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y29" t="n">
-        <v>2144.895377947847</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.410930903097</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C32" t="n">
-        <v>1476.448413962685</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410103</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139988</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2235.550262878909</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.410930903097</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
         <v>1685.951113992584</v>
@@ -6795,34 +6797,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6889,19 +6891,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926365</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>298.629863103029</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.464090846021</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.127582679363</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C38" t="n">
-        <v>821.1650657389509</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D38" t="n">
-        <v>821.1650657389509</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E38" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3277.694532320225</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3024.164055594061</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2693.10116825049</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2340.332512980376</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1966.866754719296</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.727422743484</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>1630.166666846771</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>1630.166666846771</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>1480.050027434436</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2368.365966925279</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>1850.959245990301</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>1630.166666846771</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392144</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>194.5422403324639</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218342</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7606,13 +7608,13 @@
         <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.798574724517</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>588.395308462682</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.807527238423</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.845010298012</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>863.5793116912612</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>477.7910590930169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>66.80515430340938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3219.542805108066</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2741.012457539437</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.546699278357</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.407367302545</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.9944709118752</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C46" t="n">
-        <v>617.0582879839683</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D46" t="n">
-        <v>466.9416485716325</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E46" t="n">
-        <v>319.0285549892394</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F46" t="n">
-        <v>319.0285549892394</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G46" t="n">
-        <v>151.3257183639584</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3257183639584</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3159.692616277289</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>2937.926000846815</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.425065783662</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="W46" t="n">
-        <v>1416.425065783662</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.435514885645</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.6429357421149</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143858</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,13 +22552,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.92995203461362</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>156.0415408865665</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22716,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>103.0154349816509</v>
+        <v>201.0255317979735</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1430340502188</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>188.2638467992355</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>103.0154349816511</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>36.98748233845686</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>126.043135690708</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -23075,7 +23077,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>68.10752735673037</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>158.3629794988954</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,10 +23244,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>35.80215787152343</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>111.4435131414775</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>244.2309977160905</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>228.8832021954669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>147.5787499310944</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>366.5485151445869</v>
       </c>
     </row>
     <row r="18">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594889</v>
+        <v>61.76674224145185</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>165.4434550539001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>190.6813450477652</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>22.5199493098215</v>
       </c>
       <c r="E22" t="n">
-        <v>27.38138722868914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>82.87935969080576</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>387.4734956293883</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24263,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>94.31696182735375</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>90.92797063740419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>258.2608625746003</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>145.9927856228082</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35543628911095</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>215.7302900113292</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>93.55127865263665</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>200.1511783058389</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>87.01161423129975</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.4857937435635</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>131.35959153981</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>139.5326190389242</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>121.0484390002723</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>270.8849248580842</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.6316181609398</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>4.18537545208163</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>12.38695449738088</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>25.51495205287856</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>764080.1352924892</v>
+        <v>764080.135292489</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764080.135292489</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842762.2200589038</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842762.2200589037</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842762.2200589037</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842762.220058904</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="D2" t="n">
         <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
@@ -26335,25 +26337,25 @@
         <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="L2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="M2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>14971.45584523219</v>
       </c>
       <c r="C4" t="n">
-        <v>14971.45584523218</v>
+        <v>14971.45584523219</v>
       </c>
       <c r="D4" t="n">
         <v>14971.45584523218</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
         <v>7940.571207054552</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,22 +26478,22 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26500,13 +26502,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26522,13 +26524,13 @@
         <v>-901390.7998419728</v>
       </c>
       <c r="C6" t="n">
-        <v>213360.9837339471</v>
+        <v>213360.983733947</v>
       </c>
       <c r="D6" t="n">
-        <v>213360.9837339469</v>
+        <v>213360.983733947</v>
       </c>
       <c r="E6" t="n">
-        <v>93727.0623338283</v>
+        <v>93727.06233382811</v>
       </c>
       <c r="F6" t="n">
         <v>275800.0421510186</v>
@@ -26537,31 +26539,31 @@
         <v>275800.0421510187</v>
       </c>
       <c r="H6" t="n">
+        <v>275800.0421510186</v>
+      </c>
+      <c r="I6" t="n">
+        <v>275800.042151019</v>
+      </c>
+      <c r="J6" t="n">
+        <v>108194.8643410363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>275800.0421510189</v>
+      </c>
+      <c r="L6" t="n">
+        <v>275800.0421510185</v>
+      </c>
+      <c r="M6" t="n">
+        <v>228247.7763576038</v>
+      </c>
+      <c r="N6" t="n">
         <v>275800.0421510187</v>
       </c>
-      <c r="I6" t="n">
-        <v>275800.0421510188</v>
-      </c>
-      <c r="J6" t="n">
-        <v>108194.8643410362</v>
-      </c>
-      <c r="K6" t="n">
-        <v>275800.0421510188</v>
-      </c>
-      <c r="L6" t="n">
-        <v>275800.0421510186</v>
-      </c>
-      <c r="M6" t="n">
-        <v>228247.776357604</v>
-      </c>
-      <c r="N6" t="n">
-        <v>275800.0421510188</v>
-      </c>
       <c r="O6" t="n">
+        <v>275800.0421510187</v>
+      </c>
+      <c r="P6" t="n">
         <v>275800.0421510189</v>
-      </c>
-      <c r="P6" t="n">
-        <v>275800.0421510187</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26796,40 +26798,40 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32239,7 +32241,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
         <v>769.2673490574995</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34132,7 +34134,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34793,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452403</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977092</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346374</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35273,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
